--- a/WarriorHub Effort Estimation.xlsx
+++ b/WarriorHub Effort Estimation.xlsx
@@ -2070,7 +2070,13 @@
         <v>81</v>
       </c>
       <c r="C60" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1.0</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>9</v>

--- a/WarriorHub Effort Estimation.xlsx
+++ b/WarriorHub Effort Estimation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="112">
   <si>
     <t>Issue #</t>
   </si>
@@ -120,41 +120,52 @@
   </si>
   <si>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <sz val="11.0"/>
+      </rPr>
       <t xml:space="preserve">Update Project Home Page (Update </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Times New Roman"/>
         <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
         <u/>
       </rPr>
       <t>GitHub.io</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <sz val="11.0"/>
+      </rPr>
       <t xml:space="preserve"> Page) M2</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="Times New Roman"/>
         <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Populate </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="Times New Roman"/>
         <color theme="1"/>
+        <sz val="11.0"/>
         <u/>
       </rPr>
       <t>U</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="Times New Roman"/>
         <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>ser Home Page and Landing Page with Events</t>
     </r>
@@ -321,15 +332,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="Times New Roman"/>
         <color rgb="FF000000"/>
+        <sz val="11.0"/>
       </rPr>
       <t>Github.io</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="Times New Roman"/>
         <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> page parts 1 </t>
     </r>
@@ -362,6 +375,9 @@
     <t>Fix Playwright Tests</t>
   </si>
   <si>
+    <t>Edit Event QoL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Team Member </t>
   </si>
   <si>
@@ -394,13 +410,16 @@
   </si>
   <si>
     <t>Alicia Luck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -419,13 +438,10 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -448,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -458,22 +474,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2453,6 +2466,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>106.0</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B22"/>
@@ -2479,85 +2515,85 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
         <v>3.0</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>103</v>
+      <c r="C2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
         <v>3.0</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="2">
         <v>3.0</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="2">
         <v>6.0</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>108</v>
+      <c r="C5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2">
         <v>3.0</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>74</v>
       </c>
     </row>
